--- a/FPGA_Gyro/layout.xlsx
+++ b/FPGA_Gyro/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\FPGA_Gyro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Documents\GitHub\adamShiau_Python\FPGA_Gyro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE0C085-30D9-451E-A0FB-89019EEE0A68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92857FA2-89CE-4EAE-8F38-B296593BC7AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="1545" windowWidth="12810" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,25 +141,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -445,16 +451,16 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -511,281 +517,274 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A22" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="L10:O10"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FPGA_Gyro/layout.xlsx
+++ b/FPGA_Gyro/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Documents\GitHub\adamShiau_Python\FPGA_Gyro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\FPGA_Gyro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92857FA2-89CE-4EAE-8F38-B296593BC7AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE01AA-6B75-4700-BF13-25970F13DFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14340" yWindow="1545" windowWidth="12810" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,14 +85,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -137,22 +131,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -162,10 +197,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,16 +489,16 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -517,274 +555,274 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A22" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="5"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="7"/>
       <c r="N7" s="5"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="5"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="5"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B3:K7"/>
+    <mergeCell ref="B8:K12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FPGA_Gyro/layout.xlsx
+++ b/FPGA_Gyro/layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\FPGA_Gyro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE01AA-6B75-4700-BF13-25970F13DFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2BD5A8-5F36-467D-B9C6-22DF4BC2E651}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="1545" windowWidth="12810" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,27 +185,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -489,7 +490,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,14 +560,15 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -663,10 +665,10 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -683,8 +685,8 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -701,10 +703,10 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -721,6 +723,10 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -815,7 +821,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="L8:M8"/>
@@ -823,6 +829,8 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="B3:K7"/>
     <mergeCell ref="B8:K12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
